--- a/Team-Data/2010-11/4-3-2010-11.xlsx
+++ b/Team-Data/2010-11/4-3-2010-11.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -669,13 +736,13 @@
         <v>76</v>
       </c>
       <c r="E2" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.579</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -684,7 +751,7 @@
         <v>36.2</v>
       </c>
       <c r="J2" t="n">
-        <v>78.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K2" t="n">
         <v>0.462</v>
@@ -693,67 +760,67 @@
         <v>6.3</v>
       </c>
       <c r="M2" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.351</v>
+        <v>0.353</v>
       </c>
       <c r="O2" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P2" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="n">
         <v>0.78</v>
       </c>
       <c r="R2" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S2" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="T2" t="n">
-        <v>39.6</v>
+        <v>39.8</v>
       </c>
       <c r="U2" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V2" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y2" t="n">
         <v>4.3</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
         <v>28</v>
@@ -765,10 +832,10 @@
         <v>25</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM2" t="n">
         <v>16</v>
@@ -777,19 +844,19 @@
         <v>17</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
       </c>
       <c r="AS2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT2" t="n">
         <v>26</v>
@@ -798,25 +865,25 @@
         <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW2" t="n">
         <v>29</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AY2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ2" t="n">
         <v>2</v>
       </c>
       <c r="BA2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BC2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-3-2010-11</t>
+          <t>2011-04-03</t>
         </is>
       </c>
     </row>
@@ -848,37 +915,37 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3" t="n">
         <v>52</v>
       </c>
       <c r="F3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="n">
-        <v>0.703</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="J3" t="n">
         <v>76</v>
       </c>
       <c r="K3" t="n">
-        <v>0.488</v>
+        <v>0.486</v>
       </c>
       <c r="L3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.366</v>
+        <v>0.364</v>
       </c>
       <c r="O3" t="n">
         <v>17.7</v>
@@ -887,13 +954,13 @@
         <v>23.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R3" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="S3" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T3" t="n">
         <v>38.9</v>
@@ -908,40 +975,40 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y3" t="n">
         <v>4.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="AA3" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.90000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF3" t="n">
         <v>4</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH3" t="n">
         <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -959,13 +1026,13 @@
         <v>12</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
@@ -977,7 +1044,7 @@
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV3" t="n">
         <v>19</v>
@@ -986,16 +1053,16 @@
         <v>3</v>
       </c>
       <c r="AX3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ3" t="n">
         <v>16</v>
       </c>
       <c r="BA3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB3" t="n">
         <v>22</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-3-2010-11</t>
+          <t>2011-04-03</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1115,7 @@
         <v>34.7</v>
       </c>
       <c r="J4" t="n">
-        <v>77.40000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="K4" t="n">
         <v>0.449</v>
@@ -1066,10 +1133,10 @@
         <v>18.7</v>
       </c>
       <c r="P4" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="R4" t="n">
         <v>10.5</v>
@@ -1081,43 +1148,43 @@
         <v>40.7</v>
       </c>
       <c r="U4" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V4" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W4" t="n">
         <v>6.3</v>
       </c>
       <c r="X4" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA4" t="n">
         <v>21.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.8</v>
+        <v>-3.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>20</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
         <v>19</v>
@@ -1129,7 +1196,7 @@
         <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>28</v>
@@ -1150,16 +1217,16 @@
         <v>21</v>
       </c>
       <c r="AR4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT4" t="n">
         <v>19</v>
       </c>
       <c r="AU4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV4" t="n">
         <v>24</v>
@@ -1168,16 +1235,16 @@
         <v>28</v>
       </c>
       <c r="AX4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-3-2010-11</t>
+          <t>2011-04-03</t>
         </is>
       </c>
     </row>
@@ -1212,25 +1279,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E5" t="n">
         <v>56</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.747</v>
+        <v>0.737</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J5" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K5" t="n">
         <v>0.461</v>
@@ -1242,7 +1309,7 @@
         <v>17.2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.362</v>
+        <v>0.36</v>
       </c>
       <c r="O5" t="n">
         <v>18.2</v>
@@ -1251,16 +1318,16 @@
         <v>24.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.739</v>
+        <v>0.737</v>
       </c>
       <c r="R5" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T5" t="n">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="U5" t="n">
         <v>22.1</v>
@@ -1278,61 +1345,61 @@
         <v>5.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB5" t="n">
         <v>98.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>2</v>
       </c>
       <c r="AF5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG5" t="n">
         <v>2</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
         <v>17</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ5" t="n">
         <v>26</v>
       </c>
       <c r="AR5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS5" t="n">
         <v>5</v>
@@ -1344,22 +1411,22 @@
         <v>11</v>
       </c>
       <c r="AV5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW5" t="n">
         <v>18</v>
       </c>
       <c r="AX5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY5" t="n">
         <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB5" t="n">
         <v>20</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-3-2010-11</t>
+          <t>2011-04-03</t>
         </is>
       </c>
     </row>
@@ -1397,49 +1464,49 @@
         <v>75</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" t="n">
-        <v>0.187</v>
+        <v>0.2</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="J6" t="n">
         <v>81.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.433</v>
+        <v>0.432</v>
       </c>
       <c r="L6" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M6" t="n">
         <v>18.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.346</v>
+        <v>0.344</v>
       </c>
       <c r="O6" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P6" t="n">
         <v>25.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.741</v>
+        <v>0.744</v>
       </c>
       <c r="R6" t="n">
         <v>10.5</v>
       </c>
       <c r="S6" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T6" t="n">
         <v>40.5</v>
@@ -1448,43 +1515,43 @@
         <v>20.9</v>
       </c>
       <c r="V6" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W6" t="n">
         <v>6.7</v>
       </c>
       <c r="X6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>95.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="AC6" t="n">
-        <v>-10.2</v>
+        <v>-9.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="n">
         <v>30</v>
       </c>
       <c r="AF6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG6" t="n">
         <v>30</v>
       </c>
       <c r="AH6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
         <v>28</v>
@@ -1496,19 +1563,19 @@
         <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AM6" t="n">
         <v>13</v>
       </c>
       <c r="AN6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO6" t="n">
         <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ6" t="n">
         <v>25</v>
@@ -1520,16 +1587,16 @@
         <v>23</v>
       </c>
       <c r="AT6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU6" t="n">
         <v>17</v>
       </c>
       <c r="AV6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AW6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AX6" t="n">
         <v>28</v>
@@ -1538,13 +1605,13 @@
         <v>27</v>
       </c>
       <c r="AZ6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC6" t="n">
         <v>30</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-3-2010-11</t>
+          <t>2011-04-03</t>
         </is>
       </c>
     </row>
@@ -1579,61 +1646,61 @@
         <v>76</v>
       </c>
       <c r="E7" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.697</v>
       </c>
       <c r="H7" t="n">
         <v>48</v>
       </c>
       <c r="I7" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J7" t="n">
         <v>78.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L7" t="n">
         <v>7.9</v>
       </c>
       <c r="M7" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="N7" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="O7" t="n">
         <v>17.5</v>
       </c>
       <c r="P7" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.778</v>
+        <v>0.779</v>
       </c>
       <c r="R7" t="n">
         <v>9.4</v>
       </c>
       <c r="S7" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T7" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U7" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="V7" t="n">
         <v>13.8</v>
       </c>
       <c r="W7" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X7" t="n">
         <v>4.3</v>
@@ -1651,25 +1718,25 @@
         <v>99.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH7" t="n">
         <v>30</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
         <v>24</v>
@@ -1684,10 +1751,10 @@
         <v>5</v>
       </c>
       <c r="AN7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP7" t="n">
         <v>27</v>
@@ -1699,19 +1766,19 @@
         <v>28</v>
       </c>
       <c r="AS7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AT7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV7" t="n">
         <v>12</v>
       </c>
       <c r="AW7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AX7" t="n">
         <v>26</v>
@@ -1726,7 +1793,7 @@
         <v>24</v>
       </c>
       <c r="BB7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-3-2010-11</t>
+          <t>2011-04-03</t>
         </is>
       </c>
     </row>
@@ -1785,37 +1852,37 @@
         <v>8.1</v>
       </c>
       <c r="M8" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.389</v>
+        <v>0.388</v>
       </c>
       <c r="O8" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="P8" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.769</v>
+        <v>0.773</v>
       </c>
       <c r="R8" t="n">
         <v>9.5</v>
       </c>
       <c r="S8" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T8" t="n">
         <v>41.9</v>
       </c>
       <c r="U8" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V8" t="n">
         <v>14.1</v>
       </c>
       <c r="W8" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X8" t="n">
         <v>4.3</v>
@@ -1824,25 +1891,25 @@
         <v>6</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.3</v>
+        <v>107.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
         <v>9</v>
@@ -1854,7 +1921,7 @@
         <v>10</v>
       </c>
       <c r="AJ8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK8" t="n">
         <v>3</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR8" t="n">
         <v>27</v>
@@ -1884,22 +1951,22 @@
         <v>4</v>
       </c>
       <c r="AT8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ8" t="n">
         <v>19</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-3-2010-11</t>
+          <t>2011-04-03</t>
         </is>
       </c>
     </row>
@@ -1958,10 +2025,10 @@
         <v>37</v>
       </c>
       <c r="J9" t="n">
-        <v>81</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L9" t="n">
         <v>5.8</v>
@@ -1976,28 +2043,28 @@
         <v>16.3</v>
       </c>
       <c r="P9" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.734</v>
+        <v>0.73</v>
       </c>
       <c r="R9" t="n">
         <v>11.3</v>
       </c>
       <c r="S9" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="T9" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="U9" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V9" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W9" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="X9" t="n">
         <v>4</v>
@@ -2006,19 +2073,19 @@
         <v>4.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA9" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>96.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>-4.2</v>
+        <v>-4.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2033,7 +2100,7 @@
         <v>6</v>
       </c>
       <c r="AI9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ9" t="n">
         <v>14</v>
@@ -2051,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="AO9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP9" t="n">
         <v>28</v>
@@ -2069,13 +2136,13 @@
         <v>30</v>
       </c>
       <c r="AU9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX9" t="n">
         <v>30</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-3-2010-11</t>
+          <t>2011-04-03</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E10" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" t="n">
         <v>44</v>
       </c>
       <c r="G10" t="n">
-        <v>0.421</v>
+        <v>0.429</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>39.4</v>
+        <v>39.6</v>
       </c>
       <c r="J10" t="n">
-        <v>85.5</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L10" t="n">
         <v>8.300000000000001</v>
@@ -2155,13 +2222,13 @@
         <v>0.392</v>
       </c>
       <c r="O10" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="P10" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.757</v>
+        <v>0.759</v>
       </c>
       <c r="R10" t="n">
         <v>11.5</v>
@@ -2170,16 +2237,16 @@
         <v>28.8</v>
       </c>
       <c r="T10" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U10" t="n">
         <v>22.4</v>
       </c>
       <c r="V10" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X10" t="n">
         <v>4.9</v>
@@ -2188,19 +2255,19 @@
         <v>4.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA10" t="n">
         <v>18.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>102.9</v>
+        <v>103.2</v>
       </c>
       <c r="AC10" t="n">
         <v>-2.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>20</v>
@@ -2209,10 +2276,10 @@
         <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI10" t="n">
         <v>1</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AL10" t="n">
         <v>5</v>
@@ -2239,16 +2306,16 @@
         <v>30</v>
       </c>
       <c r="AQ10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AR10" t="n">
         <v>11</v>
       </c>
       <c r="AS10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
@@ -2260,22 +2327,22 @@
         <v>2</v>
       </c>
       <c r="AX10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB10" t="n">
         <v>7</v>
       </c>
       <c r="BC10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-3-2010-11</t>
+          <t>2011-04-03</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2371,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E11" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G11" t="n">
-        <v>0.547</v>
+        <v>0.526</v>
       </c>
       <c r="H11" t="n">
         <v>48.5</v>
       </c>
       <c r="I11" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J11" t="n">
-        <v>84.90000000000001</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.456</v>
+        <v>0.454</v>
       </c>
       <c r="L11" t="n">
         <v>8.300000000000001</v>
@@ -2334,55 +2401,55 @@
         <v>22.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="O11" t="n">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="P11" t="n">
-        <v>25.4</v>
+        <v>25.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8</v>
+        <v>0.801</v>
       </c>
       <c r="R11" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="S11" t="n">
         <v>30.9</v>
       </c>
       <c r="T11" t="n">
-        <v>42.4</v>
+        <v>42.6</v>
       </c>
       <c r="U11" t="n">
         <v>23.6</v>
       </c>
       <c r="V11" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W11" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X11" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y11" t="n">
         <v>5.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA11" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>105.9</v>
+        <v>106.1</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>14</v>
@@ -2415,25 +2482,25 @@
         <v>7</v>
       </c>
       <c r="AO11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP11" t="n">
         <v>5</v>
       </c>
-      <c r="AP11" t="n">
-        <v>7</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AS11" t="n">
         <v>13</v>
       </c>
       <c r="AT11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AU11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV11" t="n">
         <v>6</v>
@@ -2442,16 +2509,16 @@
         <v>19</v>
       </c>
       <c r="AX11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY11" t="n">
         <v>23</v>
       </c>
       <c r="AZ11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB11" t="n">
         <v>3</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-3-2010-11</t>
+          <t>2011-04-03</t>
         </is>
       </c>
     </row>
@@ -2501,28 +2568,28 @@
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J12" t="n">
         <v>82.59999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L12" t="n">
         <v>7.1</v>
       </c>
       <c r="M12" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="N12" t="n">
         <v>0.351</v>
       </c>
       <c r="O12" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="P12" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="Q12" t="n">
         <v>0.784</v>
@@ -2531,7 +2598,7 @@
         <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T12" t="n">
         <v>43.7</v>
@@ -2540,7 +2607,7 @@
         <v>19.5</v>
       </c>
       <c r="V12" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W12" t="n">
         <v>7</v>
@@ -2549,7 +2616,7 @@
         <v>5.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z12" t="n">
         <v>21.6</v>
@@ -2558,7 +2625,7 @@
         <v>21.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC12" t="n">
         <v>-1.2</v>
@@ -2582,10 +2649,10 @@
         <v>22</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
         <v>10</v>
@@ -2600,7 +2667,7 @@
         <v>7</v>
       </c>
       <c r="AP12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ12" t="n">
         <v>5</v>
@@ -2633,10 +2700,10 @@
         <v>22</v>
       </c>
       <c r="BA12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC12" t="n">
         <v>19</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-3-2010-11</t>
+          <t>2011-04-03</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E13" t="n">
         <v>30</v>
       </c>
       <c r="F13" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G13" t="n">
-        <v>0.395</v>
+        <v>0.39</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J13" t="n">
         <v>80.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L13" t="n">
         <v>6.3</v>
@@ -2698,7 +2765,7 @@
         <v>18.7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.339</v>
+        <v>0.338</v>
       </c>
       <c r="O13" t="n">
         <v>19.2</v>
@@ -2707,7 +2774,7 @@
         <v>27</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.71</v>
+        <v>0.709</v>
       </c>
       <c r="R13" t="n">
         <v>11.6</v>
@@ -2722,7 +2789,7 @@
         <v>22.1</v>
       </c>
       <c r="V13" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="W13" t="n">
         <v>6.9</v>
@@ -2740,13 +2807,13 @@
         <v>22.2</v>
       </c>
       <c r="AB13" t="n">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>-2.9</v>
+        <v>-3</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>23</v>
@@ -2764,7 +2831,7 @@
         <v>21</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK13" t="n">
         <v>18</v>
@@ -2806,7 +2873,7 @@
         <v>22</v>
       </c>
       <c r="AX13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY13" t="n">
         <v>17</v>
@@ -2815,13 +2882,13 @@
         <v>20</v>
       </c>
       <c r="BA13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-3-2010-11</t>
+          <t>2011-04-03</t>
         </is>
       </c>
     </row>
@@ -2853,13 +2920,13 @@
         <v>75</v>
       </c>
       <c r="E14" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>0.72</v>
+        <v>0.733</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2868,49 +2935,49 @@
         <v>38.3</v>
       </c>
       <c r="J14" t="n">
-        <v>82.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L14" t="n">
         <v>6.4</v>
       </c>
       <c r="M14" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.353</v>
+        <v>0.356</v>
       </c>
       <c r="O14" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P14" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.779</v>
+        <v>0.781</v>
       </c>
       <c r="R14" t="n">
         <v>12.1</v>
       </c>
       <c r="S14" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T14" t="n">
         <v>43.9</v>
       </c>
       <c r="U14" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V14" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W14" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X14" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y14" t="n">
         <v>4.5</v>
@@ -2922,19 +2989,19 @@
         <v>20.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>101.7</v>
+        <v>102</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
       </c>
       <c r="AF14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG14" t="n">
         <v>3</v>
@@ -2943,7 +3010,7 @@
         <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ14" t="n">
         <v>12</v>
@@ -2958,40 +3025,40 @@
         <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
         <v>9</v>
       </c>
       <c r="AP14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT14" t="n">
         <v>3</v>
       </c>
       <c r="AU14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW14" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AX14" t="n">
         <v>11</v>
       </c>
       <c r="AY14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-3-2010-11</t>
+          <t>2011-04-03</t>
         </is>
       </c>
     </row>
@@ -3032,22 +3099,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E15" t="n">
         <v>44</v>
       </c>
       <c r="F15" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" t="n">
-        <v>0.579</v>
+        <v>0.571</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="J15" t="n">
         <v>83.09999999999999</v>
@@ -3062,10 +3129,10 @@
         <v>11.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.331</v>
+        <v>0.332</v>
       </c>
       <c r="O15" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P15" t="n">
         <v>24</v>
@@ -3074,7 +3141,7 @@
         <v>0.752</v>
       </c>
       <c r="R15" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S15" t="n">
         <v>29.1</v>
@@ -3083,7 +3150,7 @@
         <v>40.9</v>
       </c>
       <c r="U15" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V15" t="n">
         <v>13.9</v>
@@ -3098,28 +3165,28 @@
         <v>6.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB15" t="n">
         <v>100.1</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
         <v>10</v>
       </c>
       <c r="AF15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
         <v>8</v>
@@ -3140,16 +3207,16 @@
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO15" t="n">
         <v>16</v>
       </c>
       <c r="AP15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
         <v>7</v>
@@ -3161,7 +3228,7 @@
         <v>18</v>
       </c>
       <c r="AU15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV15" t="n">
         <v>13</v>
@@ -3179,7 +3246,7 @@
         <v>17</v>
       </c>
       <c r="BA15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB15" t="n">
         <v>11</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-3-2010-11</t>
+          <t>2011-04-03</t>
         </is>
       </c>
     </row>
@@ -3214,85 +3281,85 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E16" t="n">
         <v>53</v>
       </c>
       <c r="F16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G16" t="n">
-        <v>0.707</v>
+        <v>0.697</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="J16" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.482</v>
+        <v>0.48</v>
       </c>
       <c r="L16" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M16" t="n">
         <v>18</v>
       </c>
       <c r="N16" t="n">
-        <v>0.367</v>
+        <v>0.369</v>
       </c>
       <c r="O16" t="n">
         <v>21.6</v>
       </c>
       <c r="P16" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.768</v>
+        <v>0.77</v>
       </c>
       <c r="R16" t="n">
         <v>9.6</v>
       </c>
       <c r="S16" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="T16" t="n">
-        <v>42.4</v>
+        <v>42.2</v>
       </c>
       <c r="U16" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V16" t="n">
         <v>13.7</v>
       </c>
       <c r="W16" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X16" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Z16" t="n">
         <v>20.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>102.7</v>
+        <v>102.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3304,10 +3371,10 @@
         <v>4</v>
       </c>
       <c r="AH16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI16" t="n">
         <v>19</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>15</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
@@ -3322,7 +3389,7 @@
         <v>15</v>
       </c>
       <c r="AN16" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AO16" t="n">
         <v>3</v>
@@ -3337,31 +3404,31 @@
         <v>26</v>
       </c>
       <c r="AS16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV16" t="n">
         <v>10</v>
       </c>
       <c r="AW16" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AX16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY16" t="n">
         <v>1</v>
       </c>
       <c r="AZ16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB16" t="n">
         <v>8</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-3-2010-11</t>
+          <t>2011-04-03</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E17" t="n">
         <v>31</v>
       </c>
       <c r="F17" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G17" t="n">
-        <v>0.413</v>
+        <v>0.408</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,7 +3481,7 @@
         <v>34.2</v>
       </c>
       <c r="J17" t="n">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="K17" t="n">
         <v>0.429</v>
@@ -3423,7 +3490,7 @@
         <v>5.9</v>
       </c>
       <c r="M17" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="N17" t="n">
         <v>0.344</v>
@@ -3432,22 +3499,22 @@
         <v>17.3</v>
       </c>
       <c r="P17" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.752</v>
+        <v>0.75</v>
       </c>
       <c r="R17" t="n">
         <v>10.8</v>
       </c>
       <c r="S17" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T17" t="n">
         <v>41.1</v>
       </c>
       <c r="U17" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="V17" t="n">
         <v>13.5</v>
@@ -3462,7 +3529,7 @@
         <v>4.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA17" t="n">
         <v>20.9</v>
@@ -3474,19 +3541,19 @@
         <v>-1</v>
       </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
         <v>22</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
         <v>22</v>
       </c>
       <c r="AH17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI17" t="n">
         <v>30</v>
@@ -3504,7 +3571,7 @@
         <v>19</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
         <v>27</v>
@@ -3513,16 +3580,16 @@
         <v>24</v>
       </c>
       <c r="AQ17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR17" t="n">
         <v>17</v>
       </c>
       <c r="AS17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU17" t="n">
         <v>30</v>
@@ -3531,16 +3598,16 @@
         <v>7</v>
       </c>
       <c r="AW17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY17" t="n">
         <v>16</v>
       </c>
       <c r="AZ17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA17" t="n">
         <v>16</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-3-2010-11</t>
+          <t>2011-04-03</t>
         </is>
       </c>
     </row>
@@ -3578,25 +3645,25 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E18" t="n">
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G18" t="n">
-        <v>0.224</v>
+        <v>0.221</v>
       </c>
       <c r="H18" t="n">
         <v>48.2</v>
       </c>
       <c r="I18" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J18" t="n">
-        <v>85.3</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K18" t="n">
         <v>0.438</v>
@@ -3608,7 +3675,7 @@
         <v>19.2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.374</v>
+        <v>0.375</v>
       </c>
       <c r="O18" t="n">
         <v>18.6</v>
@@ -3623,19 +3690,19 @@
         <v>13.4</v>
       </c>
       <c r="S18" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T18" t="n">
         <v>44.6</v>
       </c>
       <c r="U18" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V18" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="W18" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X18" t="n">
         <v>5.2</v>
@@ -3644,19 +3711,19 @@
         <v>5.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA18" t="n">
         <v>21.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>100.4</v>
+        <v>100.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>-6.3</v>
+        <v>-6.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3671,7 +3738,7 @@
         <v>27</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
         <v>2</v>
@@ -3695,7 +3762,7 @@
         <v>13</v>
       </c>
       <c r="AQ18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR18" t="n">
         <v>1</v>
@@ -3707,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="AU18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV18" t="n">
         <v>30</v>
@@ -3719,19 +3786,19 @@
         <v>10</v>
       </c>
       <c r="AY18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB18" t="n">
         <v>10</v>
       </c>
       <c r="BC18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-3-2010-11</t>
+          <t>2011-04-03</t>
         </is>
       </c>
     </row>
@@ -3763,13 +3830,13 @@
         <v>75</v>
       </c>
       <c r="E19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19" t="n">
-        <v>0.293</v>
+        <v>0.307</v>
       </c>
       <c r="H19" t="n">
         <v>48.9</v>
@@ -3778,46 +3845,46 @@
         <v>35.3</v>
       </c>
       <c r="J19" t="n">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="K19" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L19" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M19" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.341</v>
+        <v>0.343</v>
       </c>
       <c r="O19" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P19" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="Q19" t="n">
         <v>0.758</v>
       </c>
       <c r="R19" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S19" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T19" t="n">
-        <v>41.4</v>
+        <v>41.6</v>
       </c>
       <c r="U19" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V19" t="n">
         <v>14.3</v>
       </c>
       <c r="W19" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="X19" t="n">
         <v>4.7</v>
@@ -3832,13 +3899,13 @@
         <v>20</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>-6.3</v>
+        <v>-6.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
         <v>25</v>
@@ -3868,31 +3935,31 @@
         <v>20</v>
       </c>
       <c r="AN19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO19" t="n">
         <v>25</v>
       </c>
-      <c r="AO19" t="n">
-        <v>24</v>
-      </c>
       <c r="AP19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR19" t="n">
         <v>13</v>
       </c>
       <c r="AS19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW19" t="n">
         <v>30</v>
@@ -3904,7 +3971,7 @@
         <v>13</v>
       </c>
       <c r="AZ19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA19" t="n">
         <v>25</v>
@@ -3913,7 +3980,7 @@
         <v>28</v>
       </c>
       <c r="BC19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-3-2010-11</t>
+          <t>2011-04-03</t>
         </is>
       </c>
     </row>
@@ -3957,13 +4024,13 @@
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J20" t="n">
-        <v>78.2</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L20" t="n">
         <v>5.4</v>
@@ -3972,40 +4039,40 @@
         <v>15.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.356</v>
+        <v>0.355</v>
       </c>
       <c r="O20" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P20" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q20" t="n">
         <v>0.768</v>
       </c>
       <c r="R20" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S20" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T20" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="U20" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V20" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W20" t="n">
         <v>7.5</v>
       </c>
       <c r="X20" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z20" t="n">
         <v>20.9</v>
@@ -4014,25 +4081,25 @@
         <v>20.4</v>
       </c>
       <c r="AB20" t="n">
-        <v>95</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF20" t="n">
         <v>12</v>
       </c>
       <c r="AG20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH20" t="n">
         <v>12</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>13</v>
       </c>
       <c r="AI20" t="n">
         <v>26</v>
@@ -4050,37 +4117,37 @@
         <v>25</v>
       </c>
       <c r="AN20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO20" t="n">
         <v>20</v>
       </c>
       <c r="AP20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ20" t="n">
         <v>13</v>
       </c>
       <c r="AR20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AT20" t="n">
         <v>24</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>23</v>
       </c>
       <c r="AU20" t="n">
         <v>22</v>
       </c>
       <c r="AV20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW20" t="n">
         <v>10</v>
       </c>
       <c r="AX20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY20" t="n">
         <v>19</v>
@@ -4092,7 +4159,7 @@
         <v>20</v>
       </c>
       <c r="BB20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC20" t="n">
         <v>14</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-3-2010-11</t>
+          <t>2011-04-03</t>
         </is>
       </c>
     </row>
@@ -4142,10 +4209,10 @@
         <v>38.3</v>
       </c>
       <c r="J21" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="K21" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L21" t="n">
         <v>9.199999999999999</v>
@@ -4154,55 +4221,55 @@
         <v>24.9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.369</v>
+        <v>0.367</v>
       </c>
       <c r="O21" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="P21" t="n">
-        <v>25.6</v>
+        <v>25.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="R21" t="n">
         <v>10.4</v>
       </c>
       <c r="S21" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T21" t="n">
-        <v>40.3</v>
+        <v>40.5</v>
       </c>
       <c r="U21" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V21" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W21" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X21" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y21" t="n">
         <v>4.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA21" t="n">
         <v>20.8</v>
       </c>
       <c r="AB21" t="n">
-        <v>106.5</v>
+        <v>106.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
         <v>16</v>
@@ -4217,7 +4284,7 @@
         <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ21" t="n">
         <v>6</v>
@@ -4232,13 +4299,13 @@
         <v>2</v>
       </c>
       <c r="AN21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP21" t="n">
         <v>8</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>6</v>
       </c>
       <c r="AQ21" t="n">
         <v>2</v>
@@ -4250,7 +4317,7 @@
         <v>22</v>
       </c>
       <c r="AT21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU21" t="n">
         <v>15</v>
@@ -4259,7 +4326,7 @@
         <v>11</v>
       </c>
       <c r="AW21" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AX21" t="n">
         <v>4</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-3-2010-11</t>
+          <t>2011-04-03</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E22" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F22" t="n">
         <v>26</v>
       </c>
       <c r="G22" t="n">
-        <v>0.653</v>
+        <v>0.658</v>
       </c>
       <c r="H22" t="n">
         <v>48.8</v>
       </c>
       <c r="I22" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J22" t="n">
         <v>80.5</v>
       </c>
       <c r="K22" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L22" t="n">
         <v>6</v>
@@ -4336,16 +4403,16 @@
         <v>17.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.35</v>
+        <v>0.348</v>
       </c>
       <c r="O22" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="P22" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.824</v>
+        <v>0.823</v>
       </c>
       <c r="R22" t="n">
         <v>10.9</v>
@@ -4357,7 +4424,7 @@
         <v>42.5</v>
       </c>
       <c r="U22" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V22" t="n">
         <v>14</v>
@@ -4372,19 +4439,19 @@
         <v>4.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB22" t="n">
         <v>104.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>7</v>
@@ -4399,13 +4466,13 @@
         <v>3</v>
       </c>
       <c r="AI22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL22" t="n">
         <v>18</v>
@@ -4426,13 +4493,13 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS22" t="n">
         <v>10</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU22" t="n">
         <v>23</v>
@@ -4444,13 +4511,13 @@
         <v>5</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA22" t="n">
         <v>6</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-3-2010-11</t>
+          <t>2011-04-03</t>
         </is>
       </c>
     </row>
@@ -4491,19 +4558,19 @@
         <v>76</v>
       </c>
       <c r="E23" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G23" t="n">
-        <v>0.618</v>
+        <v>0.632</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J23" t="n">
         <v>78.40000000000001</v>
@@ -4515,16 +4582,16 @@
         <v>9.4</v>
       </c>
       <c r="M23" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="N23" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="O23" t="n">
         <v>17.7</v>
       </c>
       <c r="P23" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="Q23" t="n">
         <v>0.6899999999999999</v>
@@ -4533,40 +4600,40 @@
         <v>10.4</v>
       </c>
       <c r="S23" t="n">
-        <v>32.5</v>
+        <v>32.8</v>
       </c>
       <c r="T23" t="n">
-        <v>42.9</v>
+        <v>43.2</v>
       </c>
       <c r="U23" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V23" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W23" t="n">
         <v>6.5</v>
       </c>
       <c r="X23" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y23" t="n">
         <v>3.9</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA23" t="n">
         <v>22</v>
       </c>
       <c r="AB23" t="n">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>8</v>
@@ -4578,7 +4645,7 @@
         <v>8</v>
       </c>
       <c r="AH23" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI23" t="n">
         <v>24</v>
@@ -4587,7 +4654,7 @@
         <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4596,13 +4663,13 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO23" t="n">
         <v>21</v>
       </c>
       <c r="AP23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4611,16 +4678,16 @@
         <v>20</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT23" t="n">
         <v>6</v>
       </c>
       <c r="AU23" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AV23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW23" t="n">
         <v>27</v>
@@ -4632,13 +4699,13 @@
         <v>3</v>
       </c>
       <c r="AZ23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC23" t="n">
         <v>6</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-3-2010-11</t>
+          <t>2011-04-03</t>
         </is>
       </c>
     </row>
@@ -4670,46 +4737,46 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E24" t="n">
         <v>40</v>
       </c>
       <c r="F24" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G24" t="n">
-        <v>0.526</v>
+        <v>0.519</v>
       </c>
       <c r="H24" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I24" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J24" t="n">
         <v>82.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.464</v>
+        <v>0.463</v>
       </c>
       <c r="L24" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M24" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="N24" t="n">
         <v>0.36</v>
       </c>
       <c r="O24" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P24" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.772</v>
+        <v>0.771</v>
       </c>
       <c r="R24" t="n">
         <v>10.4</v>
@@ -4718,7 +4785,7 @@
         <v>31.8</v>
       </c>
       <c r="T24" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U24" t="n">
         <v>22.8</v>
@@ -4733,7 +4800,7 @@
         <v>4.3</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z24" t="n">
         <v>19.6</v>
@@ -4742,16 +4809,16 @@
         <v>18.9</v>
       </c>
       <c r="AB24" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF24" t="n">
         <v>15</v>
@@ -4778,22 +4845,22 @@
         <v>24</v>
       </c>
       <c r="AN24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AP24" t="n">
         <v>25</v>
       </c>
       <c r="AQ24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR24" t="n">
         <v>22</v>
       </c>
       <c r="AS24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT24" t="n">
         <v>11</v>
@@ -4802,13 +4869,13 @@
         <v>6</v>
       </c>
       <c r="AV24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY24" t="n">
         <v>10</v>
@@ -4823,7 +4890,7 @@
         <v>14</v>
       </c>
       <c r="BC24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-3-2010-11</t>
+          <t>2011-04-03</t>
         </is>
       </c>
     </row>
@@ -4852,46 +4919,46 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E25" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F25" t="n">
         <v>38</v>
       </c>
       <c r="G25" t="n">
-        <v>0.486</v>
+        <v>0.493</v>
       </c>
       <c r="H25" t="n">
         <v>48.8</v>
       </c>
       <c r="I25" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="J25" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="K25" t="n">
         <v>0.47</v>
       </c>
       <c r="L25" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M25" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="N25" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O25" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P25" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="R25" t="n">
         <v>10</v>
@@ -4918,28 +4985,28 @@
         <v>4.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AB25" t="n">
         <v>105.1</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF25" t="n">
         <v>16</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH25" t="n">
         <v>2</v>
@@ -4963,7 +5030,7 @@
         <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP25" t="n">
         <v>19</v>
@@ -4972,25 +5039,25 @@
         <v>17</v>
       </c>
       <c r="AR25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS25" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AT25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AX25" t="n">
         <v>22</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>21</v>
       </c>
       <c r="AY25" t="n">
         <v>8</v>
@@ -4999,7 +5066,7 @@
         <v>13</v>
       </c>
       <c r="BA25" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BB25" t="n">
         <v>4</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-3-2010-11</t>
+          <t>2011-04-03</t>
         </is>
       </c>
     </row>
@@ -5034,58 +5101,58 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E26" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="n">
         <v>32</v>
       </c>
       <c r="G26" t="n">
-        <v>0.573</v>
+        <v>0.579</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>80.2</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L26" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M26" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.341</v>
+        <v>0.344</v>
       </c>
       <c r="O26" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="P26" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.802</v>
+        <v>0.8</v>
       </c>
       <c r="R26" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="S26" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="T26" t="n">
-        <v>38.9</v>
+        <v>39.3</v>
       </c>
       <c r="U26" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V26" t="n">
         <v>13.1</v>
@@ -5097,64 +5164,64 @@
         <v>4.4</v>
       </c>
       <c r="Y26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA26" t="n">
         <v>21.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>96.3</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF26" t="n">
         <v>10</v>
       </c>
       <c r="AG26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI26" t="n">
         <v>25</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AK26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM26" t="n">
         <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP26" t="n">
         <v>26</v>
       </c>
       <c r="AQ26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS26" t="n">
         <v>29</v>
@@ -5172,7 +5239,7 @@
         <v>4</v>
       </c>
       <c r="AX26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY26" t="n">
         <v>4</v>
@@ -5181,7 +5248,7 @@
         <v>5</v>
       </c>
       <c r="BA26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BB26" t="n">
         <v>23</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-3-2010-11</t>
+          <t>2011-04-03</t>
         </is>
       </c>
     </row>
@@ -5243,22 +5310,22 @@
         <v>5.3</v>
       </c>
       <c r="M27" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.343</v>
+        <v>0.342</v>
       </c>
       <c r="O27" t="n">
-        <v>17.4</v>
+        <v>17.7</v>
       </c>
       <c r="P27" t="n">
-        <v>23.9</v>
+        <v>24.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.73</v>
+        <v>0.729</v>
       </c>
       <c r="R27" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S27" t="n">
         <v>30.7</v>
@@ -5276,25 +5343,25 @@
         <v>7.4</v>
       </c>
       <c r="X27" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y27" t="n">
         <v>5.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.2</v>
+        <v>-5.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
@@ -5321,16 +5388,16 @@
         <v>25</v>
       </c>
       <c r="AM27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO27" t="n">
         <v>23</v>
       </c>
-      <c r="AO27" t="n">
-        <v>26</v>
-      </c>
       <c r="AP27" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AQ27" t="n">
         <v>28</v>
@@ -5351,10 +5418,10 @@
         <v>28</v>
       </c>
       <c r="AW27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY27" t="n">
         <v>21</v>
@@ -5363,10 +5430,10 @@
         <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-3-2010-11</t>
+          <t>2011-04-03</t>
         </is>
       </c>
     </row>
@@ -5416,7 +5483,7 @@
         <v>38.4</v>
       </c>
       <c r="J28" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K28" t="n">
         <v>0.474</v>
@@ -5425,28 +5492,28 @@
         <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.397</v>
+        <v>0.396</v>
       </c>
       <c r="O28" t="n">
-        <v>18.1</v>
+        <v>18.4</v>
       </c>
       <c r="P28" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.764</v>
+        <v>0.765</v>
       </c>
       <c r="R28" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S28" t="n">
-        <v>31.8</v>
+        <v>31.6</v>
       </c>
       <c r="T28" t="n">
-        <v>41.9</v>
+        <v>41.7</v>
       </c>
       <c r="U28" t="n">
         <v>22.4</v>
@@ -5455,7 +5522,7 @@
         <v>13.6</v>
       </c>
       <c r="W28" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
         <v>4.6</v>
@@ -5467,16 +5534,16 @@
         <v>18.9</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="AC28" t="n">
         <v>5.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI28" t="n">
         <v>6</v>
@@ -5509,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP28" t="n">
         <v>18</v>
@@ -5524,16 +5591,16 @@
         <v>9</v>
       </c>
       <c r="AT28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU28" t="n">
         <v>8</v>
       </c>
       <c r="AV28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW28" t="n">
         <v>9</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>13</v>
       </c>
       <c r="AX28" t="n">
         <v>18</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-3-2010-11</t>
+          <t>2011-04-03</t>
         </is>
       </c>
     </row>
@@ -5583,13 +5650,13 @@
         <v>75</v>
       </c>
       <c r="E29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F29" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G29" t="n">
-        <v>0.28</v>
+        <v>0.267</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
@@ -5598,10 +5665,10 @@
         <v>38.6</v>
       </c>
       <c r="J29" t="n">
-        <v>82.59999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="K29" t="n">
-        <v>0.468</v>
+        <v>0.466</v>
       </c>
       <c r="L29" t="n">
         <v>4.3</v>
@@ -5610,7 +5677,7 @@
         <v>13.6</v>
       </c>
       <c r="N29" t="n">
-        <v>0.319</v>
+        <v>0.317</v>
       </c>
       <c r="O29" t="n">
         <v>17.9</v>
@@ -5619,7 +5686,7 @@
         <v>23.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R29" t="n">
         <v>11.6</v>
@@ -5628,10 +5695,10 @@
         <v>28.5</v>
       </c>
       <c r="T29" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="U29" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V29" t="n">
         <v>14.6</v>
@@ -5643,31 +5710,31 @@
         <v>4.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z29" t="n">
         <v>22</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>-6.2</v>
+        <v>-6.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH29" t="n">
         <v>19</v>
@@ -5676,7 +5743,7 @@
         <v>5</v>
       </c>
       <c r="AJ29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK29" t="n">
         <v>8</v>
@@ -5697,13 +5764,13 @@
         <v>20</v>
       </c>
       <c r="AQ29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT29" t="n">
         <v>25</v>
@@ -5712,7 +5779,7 @@
         <v>10</v>
       </c>
       <c r="AV29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW29" t="n">
         <v>20</v>
@@ -5721,7 +5788,7 @@
         <v>25</v>
       </c>
       <c r="AY29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ29" t="n">
         <v>23</v>
@@ -5730,10 +5797,10 @@
         <v>26</v>
       </c>
       <c r="BB29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BC29" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-3-2010-11</t>
+          <t>2011-04-03</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E30" t="n">
         <v>36</v>
       </c>
       <c r="F30" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G30" t="n">
-        <v>0.48</v>
+        <v>0.474</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J30" t="n">
-        <v>80.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L30" t="n">
         <v>5.3</v>
@@ -5792,31 +5859,31 @@
         <v>15.4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.347</v>
+        <v>0.343</v>
       </c>
       <c r="O30" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="P30" t="n">
-        <v>25.2</v>
+        <v>25.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.776</v>
+        <v>0.774</v>
       </c>
       <c r="R30" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S30" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="T30" t="n">
-        <v>39.4</v>
+        <v>39.6</v>
       </c>
       <c r="U30" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V30" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W30" t="n">
         <v>7.6</v>
@@ -5825,25 +5892,25 @@
         <v>5.9</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.7</v>
+        <v>23</v>
       </c>
       <c r="AA30" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="AB30" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>-1.5</v>
+        <v>-1.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF30" t="n">
         <v>18</v>
@@ -5852,13 +5919,13 @@
         <v>18</v>
       </c>
       <c r="AH30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK30" t="n">
         <v>10</v>
@@ -5867,25 +5934,25 @@
         <v>24</v>
       </c>
       <c r="AM30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN30" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
       </c>
       <c r="AP30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ30" t="n">
         <v>9</v>
       </c>
       <c r="AR30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT30" t="n">
         <v>27</v>
@@ -5894,13 +5961,13 @@
         <v>5</v>
       </c>
       <c r="AV30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW30" t="n">
         <v>7</v>
       </c>
       <c r="AX30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY30" t="n">
         <v>20</v>
@@ -5909,10 +5976,10 @@
         <v>30</v>
       </c>
       <c r="BA30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC30" t="n">
         <v>20</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-3-2010-11</t>
+          <t>2011-04-03</t>
         </is>
       </c>
     </row>
@@ -5947,52 +6014,52 @@
         <v>75</v>
       </c>
       <c r="E31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F31" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G31" t="n">
-        <v>0.267</v>
+        <v>0.253</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="J31" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K31" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L31" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="N31" t="n">
-        <v>0.333</v>
+        <v>0.332</v>
       </c>
       <c r="O31" t="n">
         <v>17.9</v>
       </c>
       <c r="P31" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="Q31" t="n">
         <v>0.746</v>
       </c>
       <c r="R31" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S31" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="T31" t="n">
-        <v>41.4</v>
+        <v>41.1</v>
       </c>
       <c r="U31" t="n">
         <v>19.6</v>
@@ -6010,19 +6077,19 @@
         <v>4.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA31" t="n">
         <v>20.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.5</v>
+        <v>-8</v>
       </c>
       <c r="AD31" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6037,13 +6104,13 @@
         <v>5</v>
       </c>
       <c r="AI31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ31" t="n">
         <v>5</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
         <v>27</v>
@@ -6052,10 +6119,10 @@
         <v>26</v>
       </c>
       <c r="AN31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP31" t="n">
         <v>16</v>
@@ -6067,10 +6134,10 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT31" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AU31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-3-2010-11</t>
+          <t>2011-04-03</t>
         </is>
       </c>
     </row>
